--- a/src/resources/excel/SceneDataTemplate.xlsx
+++ b/src/resources/excel/SceneDataTemplate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9879DD57-D4FA-471A-981E-DBBA13BF36F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB92B73-E131-4C5A-A50B-2594EDDE4B6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphic" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>コンストラクタの引数1</t>
     <rPh sb="8" eb="10">
@@ -124,6 +125,69 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示する画像(キー名)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤー番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X位置</t>
+    <rPh sb="1" eb="3">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y位置</t>
+    <rPh sb="1" eb="3">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xスケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yスケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転角(°)</t>
+    <rPh sb="0" eb="3">
+      <t>カイテンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xせん断</t>
+    <rPh sb="3" eb="4">
+      <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yせん断</t>
+    <rPh sb="3" eb="4">
+      <t>ダン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -200,13 +264,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +353,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,9 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95933FD-E51D-48F3-88FE-66E5CFB34F19}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -594,4 +746,54 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A975FBA-9EC4-4E49-A1D7-E2DCC4899154}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.69921875" style="6"/>
+    <col min="2" max="2" width="24.69921875" style="1"/>
+    <col min="3" max="3" width="24.69921875" style="9"/>
+    <col min="4" max="8" width="24.69921875" style="1"/>
+    <col min="9" max="9" width="24.69921875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/resources/excel/SceneDataTemplate.xlsx
+++ b/src/resources/excel/SceneDataTemplate.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki0\Documents\compass\sourcetree\BlackJackRPG\src\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB92B73-E131-4C5A-A50B-2594EDDE4B6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D21D5-AFBE-472D-A4E3-619C619B7634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{9B4BC5A9-B15C-4087-A2F2-2AE6429AA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
     <sheet name="Graphic" sheetId="3" r:id="rId2"/>
+    <sheet name="ClickArea" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>コンストラクタの引数1</t>
     <rPh sb="8" eb="10">
@@ -188,6 +189,27 @@
     <t>Yせん断</t>
     <rPh sb="3" eb="4">
       <t>ダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高さ</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -752,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A975FBA-9EC4-4E49-A1D7-E2DCC4899154}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.69921875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -796,4 +818,42 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA0427-2CFE-4D4A-8B06-EDE4E1281BCF}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.69921875" style="6" customWidth="1"/>
+    <col min="2" max="4" width="24.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>